--- a/englishhao/稻壳/课程表/【横版】课程表-作息时间、值日、下拉列表选择课程(双语)、晨读、晚自习、任课教师.xlsx
+++ b/englishhao/稻壳/课程表/【横版】课程表-作息时间、值日、下拉列表选择课程(双语)、晨读、晚自习、任课教师.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="横版（初、高中）" sheetId="1" r:id="rId1"/>
-    <sheet name="横版（小学）" sheetId="4" r:id="rId2"/>
+    <sheet name="横版（小学）" sheetId="3" r:id="rId2"/>
     <sheet name="学科" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'横版（初、高中）'!$B$1:$V$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'横版（小学）'!$B$1:$N$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'横版（小学）'!$B$1:$S$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>星期
 节次</t>
@@ -80,12 +80,6 @@
     <t>12:00-14:00</t>
   </si>
   <si>
-    <t>语文</t>
-  </si>
-  <si>
-    <t>郝振博</t>
-  </si>
-  <si>
     <t>语文
 Chinese</t>
   </si>
@@ -93,9 +87,6 @@
     <t>第一节</t>
   </si>
   <si>
-    <t>数学</t>
-  </si>
-  <si>
     <t>数学
 Maths</t>
   </si>
@@ -103,9 +94,6 @@
     <t>第二节</t>
   </si>
   <si>
-    <t>信息技术</t>
-  </si>
-  <si>
     <t>英语
 English</t>
   </si>
@@ -175,58 +163,20 @@
 Chemistry</t>
   </si>
   <si>
-    <t>作息时间
-Time Table</t>
-  </si>
-  <si>
-    <t>星期一
-Monday</t>
-  </si>
-  <si>
-    <t>星期二
-Tuesday</t>
-  </si>
-  <si>
-    <t>星期三
-Wednesday</t>
-  </si>
-  <si>
-    <t>星期四
-Thursday</t>
-  </si>
-  <si>
-    <t>星期五
-Friday</t>
-  </si>
-  <si>
-    <t>教师情况</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>科学</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>美术</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
     <t>备注：</t>
+  </si>
+  <si>
+    <t>语文</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">语文
@@ -243,10 +193,17 @@
     </r>
   </si>
   <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">英语
@@ -263,6 +220,21 @@
     </r>
   </si>
   <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>美术</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>信息技术</t>
+  </si>
+  <si>
     <t>政治</t>
   </si>
   <si>
@@ -301,12 +273,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,21 +293,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="47"/>
+      <sz val="6"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="庞门正道标题体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑 Light"/>
       <charset val="134"/>
     </font>
     <font>
@@ -351,6 +317,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
@@ -361,35 +333,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -408,29 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -439,15 +359,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,16 +411,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,9 +435,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,13 +449,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,7 +506,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF3FCF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,55 +620,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,67 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,48 +698,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -744,6 +728,34 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color auto="1"/>
@@ -763,17 +775,30 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color auto="1"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -800,9 +825,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -813,22 +836,11 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -852,35 +864,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -900,31 +883,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border>
+      <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,31 +917,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,21 +943,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,6 +970,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1034,10 +989,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,137 +1001,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,242 +1144,324 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1481,7 +1518,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="00E2F3E2"/>
+      <color rgb="00F1FAF1"/>
+      <color rgb="00FBFEFB"/>
+      <color rgb="00E9F8E9"/>
+      <color rgb="00EFFAEF"/>
+      <color rgb="00FAFAF7"/>
       <color rgb="00FAFAF2"/>
+      <color rgb="00F3FCF3"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1514,8 +1558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6638290" y="412750"/>
-          <a:ext cx="3648710" cy="333375"/>
+          <a:off x="7219315" y="412750"/>
+          <a:ext cx="3933190" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1596,7 +1640,7 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1626,14 +1670,174 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="501015" y="41275"/>
-          <a:ext cx="1712595" cy="727710"/>
+          <a:off x="523875" y="41275"/>
+          <a:ext cx="1851660" cy="727710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2387600" y="485775"/>
+          <a:ext cx="2152015" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600"/>
+            <a:t>更多教学及学习工具，请到WPS稻壳搜索“八不戒”下载。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1643,16 +1847,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>153670</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>412750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>744855</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1661,8 +1865,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5013960" y="285750"/>
-          <a:ext cx="3944620" cy="333375"/>
+          <a:off x="6171565" y="412750"/>
+          <a:ext cx="4735195" cy="331470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,18 +2046,18 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
@@ -1872,14 +2076,174 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="520065" y="41275"/>
-          <a:ext cx="1694180" cy="727710"/>
+          <a:off x="523875" y="41275"/>
+          <a:ext cx="1851660" cy="727710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>440690</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>488950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419985" y="488950"/>
+          <a:ext cx="2152015" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600"/>
+            <a:t>更多教学及学习工具，请到WPS稻壳搜索“八不戒”下载。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2145,570 +2509,564 @@
   <sheetPr/>
   <dimension ref="B1:V18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.62727272727273" customWidth="1"/>
-    <col min="2" max="2" width="3.54545454545455" customWidth="1"/>
-    <col min="3" max="3" width="8.18181818181818" customWidth="1"/>
-    <col min="4" max="4" width="10.1818181818182" style="1" customWidth="1"/>
-    <col min="5" max="18" width="6.63636363636364" customWidth="1"/>
-    <col min="19" max="19" width="1" customWidth="1"/>
-    <col min="20" max="20" width="8.37272727272727" customWidth="1"/>
-    <col min="21" max="21" width="9" customWidth="1"/>
-    <col min="22" max="22" width="10.4545454545455" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.54166666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.18333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.1833333333333" style="5" customWidth="1"/>
+    <col min="5" max="18" width="6.63333333333333" style="4" customWidth="1"/>
+    <col min="19" max="19" width="1" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9" style="4" customWidth="1"/>
+    <col min="22" max="22" width="10.4583333333333" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="2:19">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" ht="8" customHeight="1"/>
     <row r="3" ht="22" customHeight="1" spans="2:22">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="70" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="70" t="s">
+      <c r="P3" s="77"/>
+      <c r="Q3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="71"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="46" t="s">
+      <c r="R3" s="77"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="46"/>
-      <c r="V3" s="72"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="2:22">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="23"/>
-      <c r="T4" s="46" t="s">
+      <c r="S4" s="42"/>
+      <c r="T4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="U4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:22">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="V5" s="52"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="2:22">
+      <c r="B6" s="16"/>
+      <c r="C6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="74" t="s">
+      <c r="D6" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="75"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="2:22">
-      <c r="B6" s="45"/>
-      <c r="C6" s="10" t="s">
+      <c r="V6" s="80"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="2:22">
+      <c r="B7" s="16"/>
+      <c r="C7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="74" t="s">
+      <c r="V7" s="52"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="2:22">
+      <c r="B8" s="16"/>
+      <c r="C8" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="75"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="2:22">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46" t="s">
+      <c r="D8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="V8" s="80"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="2:22">
+      <c r="B9" s="16"/>
+      <c r="C9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="52"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="2:22">
+      <c r="B10" s="16"/>
+      <c r="C10" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" s="80"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:22">
+      <c r="B11" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="52"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:22">
+      <c r="B12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="80"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="2:22">
+      <c r="B13" s="16"/>
+      <c r="C13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="52"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:22">
+      <c r="B14" s="16"/>
+      <c r="C14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="75"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="2:22">
-      <c r="B8" s="45"/>
-      <c r="C8" s="10" t="s">
+      <c r="D14" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="80"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="2:22">
+      <c r="B15" s="16"/>
+      <c r="C15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="75"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="2:22">
-      <c r="B9" s="45"/>
-      <c r="C9" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="54" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="52"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="2:22">
+      <c r="B16" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="75"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="2:22">
-      <c r="B10" s="45"/>
-      <c r="C10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="51" t="s">
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="80"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="2:22">
+      <c r="B17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="75"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="2:22">
-      <c r="B11" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="54" t="s">
+      <c r="E17" s="27"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="V17" s="52"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="2:22">
+      <c r="B18" s="16"/>
+      <c r="C18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" s="75"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="2:22">
-      <c r="B12" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="75"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="2:22">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" s="75"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="2:22">
-      <c r="B14" s="45"/>
-      <c r="C14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="75"/>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="2:22">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="V15" s="75"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="2:22">
-      <c r="B16" s="15" t="s">
+      <c r="E18" s="63"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="V16" s="75"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="2:22">
-      <c r="B17" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="V17" s="75"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="2:22">
-      <c r="B18" s="45"/>
-      <c r="C18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="V18" s="75"/>
+      <c r="V18" s="80"/>
     </row>
   </sheetData>
+  <sheetProtection password="FA3F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" objects="1"/>
   <mergeCells count="16">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="F1:N1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
@@ -2724,19 +3082,22 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:C4"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8 S5:S7 S9:S10">
       <formula1>学科!$B$1:$B$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E10 E12:E18 G5:G10 G12:G18 I5:I10 I12:I18 K5:K10 K12:K18 M5:M10 M12:M18 O5:O10 O12:O18 Q5:Q10 Q12:Q18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E5:E7 E9:E10 E12:E15 E17:E18 G5:G7 G9:G10 G12:G15 G17:G18 I5:I7 I9:I10 I12:I15 I17:I18 K5:K7 K9:K10 K12:K15 K17:K18 M5:M7 M9:M10 M12:M15 M17:M18 O5:O7 O9:O10 O12:O15 O17:O18 Q5:Q7 Q9:Q10 Q12:Q15 Q17:Q18">
       <formula1>学科!$A$1:$A$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12:S15 S17:S18 U5:U18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12:S15 S17:S18">
+      <formula1>学科!$B$1:$B$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="U5:U18">
       <formula1>学科!$B$1:$B$25</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.314583333333333" right="0.156944444444444" top="0.511805555555556" bottom="0.393055555555556" header="0.393055555555556" footer="0.432638888888889"/>
+  <pageMargins left="0.313888888888889" right="0.15625" top="0.511805555555556" bottom="0.393055555555556" header="0.393055555555556" footer="0.432638888888889"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -2746,414 +3107,470 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:N17"/>
+  <dimension ref="B1:S15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.62727272727273" customWidth="1"/>
-    <col min="2" max="2" width="4.37272727272727" customWidth="1"/>
-    <col min="3" max="3" width="11.0727272727273" customWidth="1"/>
-    <col min="4" max="4" width="12.6272727272727" style="1" customWidth="1"/>
-    <col min="5" max="9" width="12.6272727272727" customWidth="1"/>
-    <col min="10" max="10" width="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" customWidth="1"/>
-    <col min="12" max="13" width="8.62727272727273" customWidth="1"/>
-    <col min="14" max="14" width="15.4272727272727" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.54166666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.1833333333333" style="5" customWidth="1"/>
+    <col min="5" max="14" width="8.625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="1" style="4" customWidth="1"/>
+    <col min="16" max="16" width="2.95" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="9" style="4" customWidth="1"/>
+    <col min="19" max="19" width="10.4583333333333" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51" customHeight="1" spans="2:10">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+    <row r="1" ht="51" customHeight="1" spans="2:16">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" ht="8" customHeight="1"/>
-    <row r="3" ht="22" customHeight="1" spans="2:14">
-      <c r="B3" s="8" t="s">
+    <row r="3" ht="22" customHeight="1" spans="2:19">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" ht="22" customHeight="1" spans="2:14">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="44"/>
+      <c r="S3" s="48"/>
+    </row>
+    <row r="4" ht="22" customHeight="1" spans="2:19">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="R4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="S4" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="2:14">
-      <c r="B5" s="11" t="s">
+    <row r="5" ht="37" customHeight="1" spans="2:19">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="10">
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="17">
         <v>1</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="12" t="s">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="2:14">
-      <c r="B6" s="11"/>
-      <c r="C6" s="10" t="s">
+      <c r="S5" s="50"/>
+    </row>
+    <row r="6" ht="37" customHeight="1" spans="2:19">
+      <c r="B6" s="16"/>
+      <c r="C6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="52"/>
+    </row>
+    <row r="7" ht="37" customHeight="1" spans="2:19">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="10">
-        <v>2</v>
-      </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="12" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="24"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="2:14">
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
+      <c r="S7" s="50"/>
+    </row>
+    <row r="8" ht="37" customHeight="1" spans="2:19">
+      <c r="B8" s="16"/>
+      <c r="C8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="44">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" ht="37" customHeight="1" spans="2:19">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="10">
-        <v>3</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="24"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="2:14">
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="50"/>
+    </row>
+    <row r="10" ht="37" customHeight="1" spans="2:19">
+      <c r="B10" s="16"/>
+      <c r="C10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="10">
-        <v>4</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="2:14">
-      <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="44">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" ht="37" customHeight="1" spans="2:19">
+      <c r="B11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="10">
-        <v>5</v>
-      </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="2:14">
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="17">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="50"/>
+    </row>
+    <row r="12" ht="37" customHeight="1" spans="2:19">
+      <c r="B12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="C12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="10">
-        <v>6</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="2:14">
-      <c r="B11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="12" t="s">
+      <c r="E12" s="27"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="44">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" ht="37" customHeight="1" spans="2:19">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="10">
-        <v>7</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="2:14">
-      <c r="B12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
+    </row>
+    <row r="14" ht="37" customHeight="1" spans="2:19">
+      <c r="B14" s="16"/>
+      <c r="C14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="10">
-        <v>8</v>
-      </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="24"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="2:14">
-      <c r="B13" s="11"/>
-      <c r="C13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="54"/>
+    </row>
+    <row r="15" ht="37" customHeight="1" spans="2:19">
+      <c r="B15" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="10">
-        <v>9</v>
-      </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="2:14">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="10">
-        <v>10</v>
-      </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="26"/>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="2:14">
-      <c r="B15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="2:14">
-      <c r="B16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="34"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="2:14">
-      <c r="B17" s="11"/>
-      <c r="C17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <sheetProtection password="FA3F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" objects="1"/>
+  <mergeCells count="15">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:I11"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:I15"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B3:C4"/>
-    <mergeCell ref="K15:N17"/>
+    <mergeCell ref="P14:S15"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8 J5:J7 J9:J10 E5:I7 E9:I10">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8 O5:O7 O9:O10">
       <formula1>学科!$B$1:$B$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8 M15 J12:J14 M5:M7 M9:M14 M16:M17 E12:I14 E16:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R15 O12:O14">
+      <formula1>学科!$B$1:$B$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="友情提示" error="左下角 选择 学科 可以修改或增加。" sqref="E5:E7 E9:E10 E12:E14 G5:G7 G9:G10 G12:G14 I5:I7 I9:I10 I12:I14 K5:K7 K9:K10 K12:K14 M5:M7 M9:M10 M12:M14" errorStyle="warning">
+      <formula1>学科!$B$1:$B$19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="R5:R10 R11:R14">
       <formula1>学科!$B$1:$B$25</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.511805555555556" right="0.55" top="0.511805555555556" bottom="0.393055555555556" header="0.393055555555556" footer="0.432638888888889"/>
+  <pageMargins left="0.313888888888889" right="0.15625" top="0.511805555555556" bottom="0.393055555555556" header="0.393055555555556" footer="0.432638888888889"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3169,158 +3586,158 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/稻壳/课程表/【横版】课程表-作息时间、值日、下拉列表选择课程(双语)、晨读、晚自习、任课教师.xlsx
+++ b/englishhao/稻壳/课程表/【横版】课程表-作息时间、值日、下拉列表选择课程(双语)、晨读、晚自习、任课教师.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12630"/>
+    <workbookView windowWidth="19335" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="横版（初、高中）" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>星期
 节次</t>
@@ -77,7 +77,7 @@
     <t>晨读</t>
   </si>
   <si>
-    <t>12:00-14:00</t>
+    <t>07:50-08:10</t>
   </si>
   <si>
     <t>语文
@@ -87,6 +87,9 @@
     <t>第一节</t>
   </si>
   <si>
+    <t>08:20-09:05</t>
+  </si>
+  <si>
     <t>数学
 Maths</t>
   </si>
@@ -94,6 +97,9 @@
     <t>第二节</t>
   </si>
   <si>
+    <t>09:15-10:00</t>
+  </si>
+  <si>
     <t>英语
 English</t>
   </si>
@@ -101,6 +107,9 @@
     <t>课间操</t>
   </si>
   <si>
+    <t>10:00-10:20</t>
+  </si>
+  <si>
     <t>科学
 Science</t>
   </si>
@@ -108,6 +117,9 @@
     <t>第三节</t>
   </si>
   <si>
+    <t>10:20-11:05</t>
+  </si>
+  <si>
     <t>音乐
 Music</t>
   </si>
@@ -115,6 +127,9 @@
     <t>第四节</t>
   </si>
   <si>
+    <t>11:15-12:00</t>
+  </si>
+  <si>
     <t>美术
 Art</t>
   </si>
@@ -122,6 +137,9 @@
     <t>中午</t>
   </si>
   <si>
+    <t>12:00-14:00</t>
+  </si>
+  <si>
     <t>体育
 P.E.</t>
   </si>
@@ -129,18 +147,30 @@
     <t>下午</t>
   </si>
   <si>
+    <t>14:00-14:45</t>
+  </si>
+  <si>
     <t>信息技术
 IT</t>
   </si>
   <si>
+    <t>14:55-15:40</t>
+  </si>
+  <si>
     <t>政治
 Political</t>
   </si>
   <si>
+    <t>15:50-16:35</t>
+  </si>
+  <si>
     <t>地理
 Geography</t>
   </si>
   <si>
+    <t>16:45-17:30</t>
+  </si>
+  <si>
     <t>历史
 History</t>
   </si>
@@ -148,6 +178,9 @@
     <t>放学</t>
   </si>
   <si>
+    <t>17:45</t>
+  </si>
+  <si>
     <t>生物
 Biology</t>
   </si>
@@ -155,8 +188,14 @@
     <t>晚自习</t>
   </si>
   <si>
+    <t>19:00-19:50</t>
+  </si>
+  <si>
     <t>物理
 Physics</t>
+  </si>
+  <si>
+    <t>20:00-20:50</t>
   </si>
   <si>
     <t>化学
@@ -274,9 +313,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -335,8 +374,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -351,63 +473,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,9 +489,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,44 +512,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,7 +557,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,55 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +665,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,13 +695,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,49 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,25 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,17 +925,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -913,6 +945,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,21 +1012,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -970,17 +1020,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -989,10 +1028,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,137 +1040,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,6 +1308,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1683,13 +1726,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:colOff>440690</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>485775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1700,8 +1743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2387600" y="485775"/>
-          <a:ext cx="2152015" cy="161925"/>
+          <a:off x="2386330" y="485775"/>
+          <a:ext cx="2490470" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2094,10 +2137,10 @@
       <xdr:rowOff>488950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>621030</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>507365</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2107,7 +2150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2419985" y="488950"/>
-          <a:ext cx="2152015" cy="161925"/>
+          <a:ext cx="2695575" cy="168275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2509,7 +2552,7 @@
   <sheetPr/>
   <dimension ref="B1:V18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2541,11 +2584,11 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="39"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="40"/>
     </row>
     <row r="2" ht="8" customHeight="1"/>
     <row r="3" ht="22" customHeight="1" spans="2:22">
@@ -2576,20 +2619,20 @@
         <v>6</v>
       </c>
       <c r="N3" s="13"/>
-      <c r="O3" s="76" t="s">
+      <c r="O3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="76" t="s">
+      <c r="P3" s="78"/>
+      <c r="Q3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="77"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="44" t="s">
+      <c r="R3" s="78"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="48"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="2:22">
       <c r="B4" s="10"/>
@@ -2639,14 +2682,14 @@
       <c r="R4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="44" t="s">
+      <c r="S4" s="43"/>
+      <c r="T4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="44" t="s">
+      <c r="U4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="49" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2657,410 +2700,410 @@
       <c r="C5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="58" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="58"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="58"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="25"/>
-      <c r="L5" s="58"/>
+      <c r="L5" s="59"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="58"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="25"/>
-      <c r="P5" s="58"/>
+      <c r="P5" s="59"/>
       <c r="Q5" s="25"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="51" t="s">
+      <c r="R5" s="79"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="52"/>
+      <c r="V5" s="53"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="2:22">
       <c r="B6" s="16"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="79" t="s">
+      <c r="D6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="80"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="81"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="2:22">
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="58"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="58"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="58"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="25"/>
-      <c r="L7" s="58"/>
+      <c r="L7" s="59"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="58"/>
+      <c r="N7" s="59"/>
       <c r="O7" s="25"/>
-      <c r="P7" s="58"/>
+      <c r="P7" s="59"/>
       <c r="Q7" s="25"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="V7" s="52"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="53"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="2:22">
       <c r="B8" s="16"/>
-      <c r="C8" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="V8" s="80"/>
+      <c r="C8" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="81"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="2:22">
       <c r="B9" s="16"/>
       <c r="C9" s="22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="58"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="58"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="32"/>
-      <c r="J9" s="58"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="32"/>
-      <c r="L9" s="58"/>
+      <c r="L9" s="59"/>
       <c r="M9" s="32"/>
-      <c r="N9" s="58"/>
+      <c r="N9" s="59"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="58"/>
+      <c r="P9" s="59"/>
       <c r="Q9" s="32"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" s="52"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="53"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:22">
       <c r="B10" s="16"/>
-      <c r="C10" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="V10" s="80"/>
+      <c r="C10" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="81"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="2:22">
-      <c r="B11" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="68"/>
+      <c r="B11" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="69"/>
       <c r="D11" s="23" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="F11" s="65"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="65"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="65"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="28"/>
-      <c r="L11" s="65"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="28"/>
-      <c r="N11" s="65"/>
+      <c r="N11" s="66"/>
       <c r="O11" s="28"/>
-      <c r="P11" s="65"/>
+      <c r="P11" s="66"/>
       <c r="Q11" s="28"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="52"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="53"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:22">
       <c r="B12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="80"/>
+      <c r="D12" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="81"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:22">
       <c r="B13" s="16"/>
       <c r="C13" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E13" s="27"/>
-      <c r="F13" s="58"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="58"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="58"/>
+      <c r="J13" s="59"/>
       <c r="K13" s="32"/>
-      <c r="L13" s="58"/>
+      <c r="L13" s="59"/>
       <c r="M13" s="32"/>
-      <c r="N13" s="58"/>
+      <c r="N13" s="59"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="58"/>
+      <c r="P13" s="59"/>
       <c r="Q13" s="32"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="52"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" s="53"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:22">
       <c r="B14" s="16"/>
-      <c r="C14" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" s="80"/>
+      <c r="C14" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" s="81"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="2:22">
       <c r="B15" s="16"/>
       <c r="C15" s="22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E15" s="27"/>
-      <c r="F15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="58"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="58"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="58"/>
+      <c r="L15" s="59"/>
       <c r="M15" s="32"/>
-      <c r="N15" s="58"/>
+      <c r="N15" s="59"/>
       <c r="O15" s="32"/>
-      <c r="P15" s="58"/>
+      <c r="P15" s="59"/>
       <c r="Q15" s="32"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="V15" s="52"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" s="53"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="2:22">
-      <c r="B16" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="V16" s="80"/>
+      <c r="B16" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" s="81"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:22">
       <c r="B17" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E17" s="27"/>
-      <c r="F17" s="65"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="65"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="65"/>
+      <c r="J17" s="66"/>
       <c r="K17" s="28"/>
-      <c r="L17" s="65"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="65"/>
+      <c r="N17" s="66"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="65"/>
+      <c r="P17" s="66"/>
       <c r="Q17" s="28"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="V17" s="52"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="V17" s="53"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:22">
       <c r="B18" s="16"/>
-      <c r="C18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="V18" s="80"/>
+      <c r="C18" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" s="81"/>
     </row>
   </sheetData>
   <sheetProtection password="FA3F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" objects="1"/>
@@ -3109,8 +3152,8 @@
   <sheetPr/>
   <dimension ref="B1:S15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3142,8 +3185,8 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" ht="8" customHeight="1"/>
     <row r="3" ht="22" customHeight="1" spans="2:19">
@@ -3174,15 +3217,15 @@
         <v>6</v>
       </c>
       <c r="N3" s="13"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="44" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="48"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="49"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="2:19">
       <c r="B4" s="10"/>
@@ -3220,15 +3263,15 @@
       <c r="N4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44" t="s">
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3252,15 +3295,15 @@
       <c r="L5" s="20"/>
       <c r="M5" s="21"/>
       <c r="N5" s="20"/>
-      <c r="O5" s="42"/>
+      <c r="O5" s="43"/>
       <c r="P5" s="17">
         <v>1</v>
       </c>
       <c r="Q5" s="17"/>
-      <c r="R5" s="49" t="s">
+      <c r="R5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="50"/>
+      <c r="S5" s="51"/>
     </row>
     <row r="6" ht="37" customHeight="1" spans="2:19">
       <c r="B6" s="16"/>
@@ -3268,7 +3311,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="20"/>
@@ -3280,23 +3323,23 @@
       <c r="L6" s="20"/>
       <c r="M6" s="25"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="44">
+      <c r="O6" s="43"/>
+      <c r="P6" s="45">
         <v>2</v>
       </c>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="52"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="53"/>
     </row>
     <row r="7" ht="37" customHeight="1" spans="2:19">
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
@@ -3308,23 +3351,23 @@
       <c r="L7" s="20"/>
       <c r="M7" s="21"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="42"/>
+      <c r="O7" s="43"/>
       <c r="P7" s="17">
         <v>3</v>
       </c>
       <c r="Q7" s="17"/>
-      <c r="R7" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="50"/>
+      <c r="R7" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="51"/>
     </row>
     <row r="8" ht="37" customHeight="1" spans="2:19">
       <c r="B8" s="16"/>
       <c r="C8" s="22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="20"/>
@@ -3336,23 +3379,23 @@
       <c r="L8" s="29"/>
       <c r="M8" s="28"/>
       <c r="N8" s="29"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="44">
+      <c r="O8" s="43"/>
+      <c r="P8" s="45">
         <v>4</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="52"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="53"/>
     </row>
     <row r="9" ht="37" customHeight="1" spans="2:19">
       <c r="B9" s="16"/>
       <c r="C9" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="20"/>
@@ -3364,23 +3407,23 @@
       <c r="L9" s="20"/>
       <c r="M9" s="31"/>
       <c r="N9" s="20"/>
-      <c r="O9" s="42"/>
+      <c r="O9" s="43"/>
       <c r="P9" s="17">
         <v>5</v>
       </c>
       <c r="Q9" s="17"/>
-      <c r="R9" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="50"/>
+      <c r="R9" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="51"/>
     </row>
     <row r="10" ht="37" customHeight="1" spans="2:19">
       <c r="B10" s="16"/>
       <c r="C10" s="22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="20"/>
@@ -3392,23 +3435,23 @@
       <c r="L10" s="20"/>
       <c r="M10" s="32"/>
       <c r="N10" s="20"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="44">
+      <c r="O10" s="43"/>
+      <c r="P10" s="45">
         <v>6</v>
       </c>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="52"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="53"/>
     </row>
     <row r="11" ht="37" customHeight="1" spans="2:19">
       <c r="B11" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="26" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="29"/>
@@ -3420,25 +3463,25 @@
       <c r="L11" s="29"/>
       <c r="M11" s="35"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="42"/>
+      <c r="O11" s="43"/>
       <c r="P11" s="17">
         <v>7</v>
       </c>
       <c r="Q11" s="17"/>
-      <c r="R11" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="50"/>
+      <c r="R11" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="51"/>
     </row>
     <row r="12" ht="37" customHeight="1" spans="2:19">
       <c r="B12" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="20"/>
@@ -3450,23 +3493,23 @@
       <c r="L12" s="20"/>
       <c r="M12" s="32"/>
       <c r="N12" s="20"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="44">
+      <c r="O12" s="43"/>
+      <c r="P12" s="45">
         <v>8</v>
       </c>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="52"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="53"/>
     </row>
     <row r="13" ht="37" customHeight="1" spans="2:19">
       <c r="B13" s="16"/>
       <c r="C13" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="20"/>
@@ -3478,21 +3521,21 @@
       <c r="L13" s="20"/>
       <c r="M13" s="31"/>
       <c r="N13" s="20"/>
-      <c r="O13" s="42"/>
+      <c r="O13" s="43"/>
       <c r="P13" s="17">
         <v>9</v>
       </c>
       <c r="Q13" s="17"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
     </row>
     <row r="14" ht="37" customHeight="1" spans="2:19">
       <c r="B14" s="16"/>
       <c r="C14" s="22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="20"/>
@@ -3504,37 +3547,37 @@
       <c r="L14" s="20"/>
       <c r="M14" s="32"/>
       <c r="N14" s="20"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="54"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="55"/>
     </row>
     <row r="15" ht="37" customHeight="1" spans="2:19">
       <c r="B15" s="33" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C15" s="34"/>
-      <c r="D15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="56"/>
+      <c r="D15" s="36">
+        <v>0.739583333333333</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="57"/>
     </row>
   </sheetData>
   <sheetProtection password="FA3F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" objects="1"/>
@@ -3590,154 +3633,154 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="28" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
